--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -537,31 +537,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="25">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);@_)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="182" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="183" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);@_)"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="184" formatCode="&quot;￥&quot;#,##0;\-&quot;￥&quot;#,##0"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="186" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;?_);@_)"/>
-    <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="188" formatCode="0.000_ "/>
-    <numFmt numFmtId="189" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* \-??_ ;_ @_ "/>
-    <numFmt numFmtId="190" formatCode="#,##0_ "/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="192" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="194" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="195" formatCode="0.00000_ "/>
+    <numFmt numFmtId="185" formatCode="0.00000_ "/>
+    <numFmt numFmtId="186" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="187" formatCode="#,##0_ "/>
+    <numFmt numFmtId="188" formatCode="0.00_ "/>
+    <numFmt numFmtId="189" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;?_);@_)"/>
+    <numFmt numFmtId="190" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="191" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="192" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* \-??_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="194" formatCode="0_ "/>
+    <numFmt numFmtId="195" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -629,17 +629,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -650,15 +655,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -669,65 +693,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,18 +724,60 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="13"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="56"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -771,17 +795,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,14 +845,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,35 +853,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -856,13 +862,6 @@
       <sz val="11"/>
       <color indexed="24"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -878,13 +877,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
@@ -892,8 +884,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -905,8 +905,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -989,91 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,7 +1007,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,19 +1169,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,43 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,43 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,25 +1241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,7 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,31 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,21 +1416,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1449,7 +1434,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1463,11 +1487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,8 +1505,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,30 +1535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1531,17 +1546,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1561,15 +1588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="24"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -1581,24 +1599,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,11 +1631,11 @@
   </borders>
   <cellStyleXfs count="1526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1644,3590 +1644,3590 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="190" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="43" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5257,79 +5257,79 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="37" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="52" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="55" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5353,13 +5353,13 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5368,417 +5368,417 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5811,61 +5811,61 @@
     <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="50" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="57" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="56" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5878,7 +5878,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="965" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5896,10 +5896,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5908,10 +5908,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5929,7 +5929,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="965" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5944,13 +5944,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5962,7 +5962,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="965" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="965" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5974,7 +5974,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="965" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5986,16 +5986,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="965" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6004,7 +6004,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6051,8 +6051,8 @@
     <cellStyle name="40% - 强调文字颜色 2 12" xfId="24"/>
     <cellStyle name="20% - 强调文字颜色 1 11" xfId="25"/>
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9"/>
-    <cellStyle name="常规 3 3 8" xfId="27"/>
-    <cellStyle name="好_天津荣程2010年5月上旬能源成本_6月1-20日成本_金属帐套" xfId="28"/>
+    <cellStyle name="好_天津荣程2010年5月上旬能源成本_6月1-20日成本_金属帐套" xfId="27"/>
+    <cellStyle name="常规 3 3 8" xfId="28"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="29"/>
     <cellStyle name="60% - 强调文字颜色 2 3" xfId="30"/>
     <cellStyle name="注释" xfId="31" builtinId="10"/>
@@ -7858,7 +7858,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>

--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -537,31 +537,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="25">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* \-??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00000_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);@_)"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="&quot;￥&quot;#,##0;\-&quot;￥&quot;#,##0"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-    <numFmt numFmtId="186" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="187" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* \-??_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="189" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="190" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;;@"/>
-    <numFmt numFmtId="191" formatCode="0.00000_ "/>
-    <numFmt numFmtId="192" formatCode="0.000_ "/>
-    <numFmt numFmtId="193" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;?_);@_)"/>
-    <numFmt numFmtId="195" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);@_)"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="183" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
+    <numFmt numFmtId="185" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="188" formatCode="#,##0_ "/>
+    <numFmt numFmtId="189" formatCode="&quot;￥&quot;#,##0;\-&quot;￥&quot;#,##0"/>
+    <numFmt numFmtId="190" formatCode="0_ "/>
+    <numFmt numFmtId="191" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;?_);@_)"/>
+    <numFmt numFmtId="192" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="193" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="194" formatCode="0.000_ "/>
+    <numFmt numFmtId="195" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -629,12 +629,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -643,13 +637,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -662,9 +682,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -674,11 +716,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,63 +732,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -761,11 +747,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="18"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -783,27 +768,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="56"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color indexed="23"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -828,13 +814,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -868,8 +847,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="24"/>
-      <name val="Arial"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -877,6 +856,19 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="24"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -899,13 +891,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
@@ -913,20 +898,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -939,6 +913,32 @@
     <font>
       <sz val="11"/>
       <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -989,19 +989,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1013,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,79 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1073,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,6 +1146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,6 +1253,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1271,13 +1277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,19 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,6 +1415,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1426,17 +1444,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
-        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,45 +1466,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color indexed="22"/>
       </bottom>
@@ -1508,7 +1476,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="30"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1563,11 +1531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,8 +1564,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="24"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1610,4262 +1628,4244 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="43" fillId="0" borderId="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="185" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="194" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="45" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="189" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="52" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="53" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="55" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="53" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="58" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5878,7 +5878,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="964" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5896,10 +5896,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5908,10 +5908,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5929,7 +5929,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="964" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5944,13 +5944,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5962,7 +5962,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="964" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="964" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5974,7 +5974,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="964" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5986,16 +5986,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="964" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6004,7 +6004,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6053,8 +6053,8 @@
     <cellStyle name="已访问的超链接" xfId="26" builtinId="9"/>
     <cellStyle name="注释" xfId="27" builtinId="10"/>
     <cellStyle name="60% - 强调文字颜色 2 3" xfId="28"/>
-    <cellStyle name="常规 3 3 8" xfId="29"/>
-    <cellStyle name="好_天津荣程2010年5月上旬能源成本_6月1-20日成本_金属帐套" xfId="30"/>
+    <cellStyle name="好_天津荣程2010年5月上旬能源成本_6月1-20日成本_金属帐套" xfId="29"/>
+    <cellStyle name="常规 3 3 8" xfId="30"/>
     <cellStyle name="20% - 强调文字颜色 4 5" xfId="31"/>
     <cellStyle name="40% - 强调文字颜色 3 9" xfId="32"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="33" builtinId="36"/>
@@ -7858,7 +7858,7 @@
   <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -14769,7 +14769,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
